--- a/Engine V2/Ruta4.xlsx
+++ b/Engine V2/Ruta4.xlsx
@@ -12,48 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Codigo</t>
+    <t>Id_Producto</t>
   </si>
   <si>
-    <t>Sku</t>
+    <t>Nombre_Producto</t>
   </si>
   <si>
-    <t>IVA</t>
+    <t>Vendedor</t>
   </si>
   <si>
-    <t>Impuesto_interno</t>
-  </si>
-  <si>
-    <t>Exento</t>
+    <t>Cedula</t>
   </si>
   <si>
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Precio</t>
+    <t>Errores</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>60000312</t>
   </si>
   <si>
-    <t>8454654</t>
+    <t>Leche Polietileno Entera 400ml</t>
   </si>
   <si>
-    <t>kus</t>
+    <t>Leonardo Ortiz</t>
   </si>
   <si>
-    <t>si</t>
+    <t>1717576878</t>
   </si>
   <si>
-    <t>15.5</t>
+    <t>10</t>
   </si>
   <si>
-    <t>254-21</t>
-  </si>
-  <si>
-    <t>El campo Precio no tienen un formato correcto</t>
+    <t>El producto no se encuentra registrado</t>
   </si>
 </sst>
 </file>
@@ -111,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -122,8 +116,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="6" max="6" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -145,25 +138,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
@@ -171,12 +158,6 @@
       <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <headerFooter/>

--- a/Engine V2/Ruta4.xlsx
+++ b/Engine V2/Ruta4.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ErroresCarga" sheetId="1" r:id="rId1"/>
+    <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -32,22 +32,22 @@
     <t>Errores</t>
   </si>
   <si>
-    <t>60000312</t>
+    <t>60000050</t>
   </si>
   <si>
-    <t>Leche Polietileno Entera 400ml</t>
+    <t>Leche Semidescremada Tetrafino 900ml</t>
   </si>
   <si>
-    <t>Leonardo Ortiz</t>
+    <t>Christopher Hablich</t>
   </si>
   <si>
-    <t>1717576878</t>
+    <t>0921821419</t>
   </si>
   <si>
-    <t>10</t>
+    <t>120</t>
   </si>
   <si>
-    <t>El producto no se encuentra registrado</t>
+    <t>El distribuidor no se encuentra registrado-No tiene suficiente STOCK. Cantidad actual: 42,0000</t>
   </si>
 </sst>
 </file>
